--- a/input/input variables sheet.xlsx
+++ b/input/input variables sheet.xlsx
@@ -1,25 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/solaadeleke/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\programming\clinical_research\ovarian_chemo\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F805742D-A6C1-5A47-A0CF-275A90D33F8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3EFB82D-9724-4B78-9927-380116592BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2360" yWindow="1700" windowWidth="26840" windowHeight="14960" xr2:uid="{037ECBA2-1291-EA4D-8C7B-C557A09F4A75}"/>
+    <workbookView xWindow="-38510" yWindow="-160" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{037ECBA2-1291-EA4D-8C7B-C557A09F4A75}"/>
   </bookViews>
   <sheets>
     <sheet name="Group 2" sheetId="1" r:id="rId1"/>
     <sheet name="Group 3" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -226,7 +235,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -242,13 +251,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -263,13 +293,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,18 +620,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18AD70A9-FE78-594E-B7B8-BA08F5EC3010}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E9" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
-    <col min="10" max="10" width="18.83203125" customWidth="1"/>
-    <col min="11" max="11" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" customWidth="1"/>
+    <col min="11" max="11" width="19.640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -644,12 +678,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
       <c r="E23" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -697,7 +731,7 @@
       </c>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" ht="136" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="126.9" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -741,10 +775,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A27" s="2"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -752,7 +786,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -769,13 +803,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9772F212-CF78-E842-A07E-47783236D83E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -822,7 +856,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -830,7 +864,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -838,12 +872,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
       <c r="E23" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -859,38 +893,38 @@
       <c r="E24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="K24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="L24" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="M24" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="N24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q24" s="1" t="s">
+      <c r="Q24" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -936,5 +970,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/input/input variables sheet.xlsx
+++ b/input/input variables sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\programming\clinical_research\ovarian_chemo\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3EFB82D-9724-4B78-9927-380116592BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE279306-55A8-423C-B5EE-78D27B407D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-160" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{037ECBA2-1291-EA4D-8C7B-C557A09F4A75}"/>
+    <workbookView xWindow="-38510" yWindow="-160" windowWidth="19420" windowHeight="11020" xr2:uid="{037ECBA2-1291-EA4D-8C7B-C557A09F4A75}"/>
   </bookViews>
   <sheets>
     <sheet name="Group 2" sheetId="1" r:id="rId1"/>
@@ -620,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18AD70A9-FE78-594E-B7B8-BA08F5EC3010}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="C14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
@@ -803,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9772F212-CF78-E842-A07E-47783236D83E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView topLeftCell="C5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L25" sqref="L24:L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
